--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1986396.36165649</v>
+        <v>-1989308.979538235</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D5" t="n">
-        <v>18.69198314380022</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>36.99361326575549</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.8919914206772</v>
+        <v>25.70792882276599</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>32.58397456447742</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>32.58397456447741</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.17265651123943</v>
+        <v>33.17265651123944</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.40493131899344</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.40493131899347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.14853409607061</v>
+        <v>13.14853409607059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.5501374183427</v>
+        <v>14.55013741834171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.6011929913526</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="V8" t="n">
-        <v>177.6011929913526</v>
+        <v>121.8564135306624</v>
       </c>
       <c r="W8" t="n">
-        <v>177.6011929913526</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8564135306586</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>177.6011929913558</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>127.8356293753579</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.5955014114287</v>
+        <v>28.59550141142817</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>127.8356293753546</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="V9" t="n">
-        <v>177.6011929913526</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>177.6011929913526</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>177.6011929913526</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.6011929913558</v>
       </c>
     </row>
     <row r="10">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>60.89516224112366</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0246778657678</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.6358737815141</v>
       </c>
       <c r="I10" t="n">
-        <v>126.3911536743326</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.247470077359992</v>
+        <v>5.247470077359395</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.90353902182179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>235.1355763379941</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680957</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840169</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>52.48797850547313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>254.4734417929388</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>73.43185217987083</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>13.84649807232146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>137.6317206230886</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545717</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645688</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2056,13 +2056,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139452966</v>
+        <v>54.52629139452955</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2327,10 +2327,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038396</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659984</v>
@@ -2485,16 +2485,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453197</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,16 +2530,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2722,7 +2722,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707162</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295179</v>
+        <v>60.3201464229516</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707219</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3092,10 +3092,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3193,10 +3193,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3360,10 +3360,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H36" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3433,16 +3433,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453007</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3481,13 +3481,13 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H39" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545723</v>
@@ -3797,13 +3797,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3834,10 +3834,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H42" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W44" t="n">
         <v>317.6307663651991</v>
@@ -4071,10 +4071,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,13 +4189,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.6071669359962</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="C5" t="n">
-        <v>110.6071669359962</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="D5" t="n">
-        <v>91.72637588165253</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="E5" t="n">
-        <v>91.72637588165253</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="F5" t="n">
-        <v>54.35908975462679</v>
+        <v>28.92709393274124</v>
       </c>
       <c r="G5" t="n">
-        <v>40.32677518828618</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H5" t="n">
-        <v>40.32677518828618</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I5" t="n">
-        <v>2.959489061260439</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J5" t="n">
-        <v>39.58316619435837</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58316619435837</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58316619435837</v>
+        <v>76.20684332745626</v>
       </c>
       <c r="M5" t="n">
-        <v>67.20643054193656</v>
+        <v>112.8305204605542</v>
       </c>
       <c r="N5" t="n">
-        <v>103.8301076750345</v>
+        <v>140.4537848081324</v>
       </c>
       <c r="O5" t="n">
-        <v>111.350775929924</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="P5" t="n">
         <v>147.9744530630219</v>
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.32677518828618</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="C6" t="n">
-        <v>2.959489061260439</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="D6" t="n">
-        <v>2.959489061260439</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="E6" t="n">
-        <v>2.959489061260439</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="F6" t="n">
-        <v>2.959489061260439</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="G6" t="n">
-        <v>2.959489061260439</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="H6" t="n">
-        <v>2.959489061260439</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="I6" t="n">
-        <v>2.959489061260439</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J6" t="n">
-        <v>2.959489061260439</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K6" t="n">
-        <v>2.959489061260439</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L6" t="n">
-        <v>28.04275820728449</v>
+        <v>28.04275820728447</v>
       </c>
       <c r="M6" t="n">
-        <v>64.66643534038242</v>
+        <v>64.66643534038239</v>
       </c>
       <c r="N6" t="n">
         <v>101.2901124734803</v>
@@ -4668,28 +4668,28 @@
         <v>147.9744530630219</v>
       </c>
       <c r="R6" t="n">
-        <v>110.6071669359962</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S6" t="n">
-        <v>110.6071669359962</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="T6" t="n">
-        <v>73.23988080897044</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="U6" t="n">
-        <v>73.23988080897044</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="V6" t="n">
-        <v>40.32677518828618</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="W6" t="n">
-        <v>40.32677518828618</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="X6" t="n">
-        <v>40.32677518828618</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.32677518828618</v>
+        <v>147.9744530630219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69406131531193</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69406131531193</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69406131531193</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69406131531193</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69406131531193</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69406131531193</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69406131531193</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I7" t="n">
-        <v>40.32677518828618</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J7" t="n">
-        <v>2.959489061260439</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K7" t="n">
-        <v>39.58316619435837</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="L7" t="n">
-        <v>76.2068433274563</v>
+        <v>76.20684332745626</v>
       </c>
       <c r="M7" t="n">
-        <v>76.2068433274563</v>
+        <v>111.350775929924</v>
       </c>
       <c r="N7" t="n">
-        <v>76.2068433274563</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="O7" t="n">
-        <v>111.350775929924</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="P7" t="n">
         <v>147.9744530630219</v>
@@ -4750,25 +4750,25 @@
         <v>114.4667192132851</v>
       </c>
       <c r="S7" t="n">
-        <v>114.4667192132851</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="T7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="U7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="V7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="W7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="X7" t="n">
-        <v>114.4667192132851</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.69406131531193</v>
+        <v>40.32677518828616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.43494376030017</v>
+        <v>34.43494376030041</v>
       </c>
       <c r="C8" t="n">
-        <v>34.43494376030017</v>
+        <v>34.43494376030041</v>
       </c>
       <c r="D8" t="n">
-        <v>34.43494376030017</v>
+        <v>34.43494376030041</v>
       </c>
       <c r="E8" t="n">
-        <v>34.43494376030017</v>
+        <v>34.43494376030041</v>
       </c>
       <c r="F8" t="n">
-        <v>27.4894430110967</v>
+        <v>27.48944301109694</v>
       </c>
       <c r="G8" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="H8" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="I8" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="J8" t="n">
-        <v>15.97961917232156</v>
+        <v>15.97961917232316</v>
       </c>
       <c r="K8" t="n">
-        <v>69.37319227393159</v>
+        <v>69.37319227393516</v>
       </c>
       <c r="L8" t="n">
-        <v>172.5144029471166</v>
+        <v>172.5144029471226</v>
       </c>
       <c r="M8" t="n">
-        <v>337.4758694424028</v>
+        <v>337.4758694424058</v>
       </c>
       <c r="N8" t="n">
-        <v>490.8930390382722</v>
+        <v>490.8930390382782</v>
       </c>
       <c r="O8" t="n">
-        <v>622.425260641458</v>
+        <v>622.4252606414666</v>
       </c>
       <c r="P8" t="n">
-        <v>700.1839678153248</v>
+        <v>700.1839678153357</v>
       </c>
       <c r="Q8" t="n">
-        <v>710.4047719654104</v>
+        <v>710.404771965423</v>
       </c>
       <c r="R8" t="n">
-        <v>695.7076634620339</v>
+        <v>695.7076634620475</v>
       </c>
       <c r="S8" t="n">
-        <v>695.7076634620339</v>
+        <v>695.7076634620475</v>
       </c>
       <c r="T8" t="n">
-        <v>516.3125190263243</v>
+        <v>516.3125190263347</v>
       </c>
       <c r="U8" t="n">
-        <v>516.3125190263243</v>
+        <v>336.9173745906218</v>
       </c>
       <c r="V8" t="n">
-        <v>336.9173745906145</v>
+        <v>213.8300881960133</v>
       </c>
       <c r="W8" t="n">
-        <v>157.5222301549048</v>
+        <v>213.8300881960133</v>
       </c>
       <c r="X8" t="n">
-        <v>34.43494376030017</v>
+        <v>213.8300881960133</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.43494376030017</v>
+        <v>34.43494376030041</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="C9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="D9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="E9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="F9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="G9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="H9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="I9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="J9" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="K9" t="n">
-        <v>62.00356905248577</v>
+        <v>62.00356905248739</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5930228083505</v>
+        <v>172.593022808354</v>
       </c>
       <c r="M9" t="n">
-        <v>321.0025673461623</v>
+        <v>321.002567346168</v>
       </c>
       <c r="N9" t="n">
-        <v>487.7487158372552</v>
+        <v>487.748715837263</v>
       </c>
       <c r="O9" t="n">
-        <v>618.0690700035825</v>
+        <v>618.0690700035925</v>
       </c>
       <c r="P9" t="n">
-        <v>703.329577224156</v>
+        <v>703.3295772241676</v>
       </c>
       <c r="Q9" t="n">
-        <v>710.4047719654104</v>
+        <v>710.404771965423</v>
       </c>
       <c r="R9" t="n">
-        <v>681.5204271053814</v>
+        <v>681.5204271053946</v>
       </c>
       <c r="S9" t="n">
-        <v>681.5204271053814</v>
+        <v>681.5204271053946</v>
       </c>
       <c r="T9" t="n">
-        <v>681.5204271053814</v>
+        <v>681.5204271053946</v>
       </c>
       <c r="U9" t="n">
-        <v>552.3935287464374</v>
+        <v>502.1252826696817</v>
       </c>
       <c r="V9" t="n">
-        <v>372.9983843107276</v>
+        <v>502.1252826696817</v>
       </c>
       <c r="W9" t="n">
-        <v>193.6032398750179</v>
+        <v>502.1252826696817</v>
       </c>
       <c r="X9" t="n">
-        <v>14.20809543930821</v>
+        <v>322.7301382339688</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.20809543930821</v>
+        <v>143.3349937982559</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.4138536834087</v>
+        <v>525.7091527040945</v>
       </c>
       <c r="C10" t="n">
-        <v>457.4776707555018</v>
+        <v>525.7091527040945</v>
       </c>
       <c r="D10" t="n">
-        <v>457.4776707555018</v>
+        <v>464.1988878140706</v>
       </c>
       <c r="E10" t="n">
-        <v>457.4776707555018</v>
+        <v>316.2857942316775</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5877232575914</v>
+        <v>169.3958467337671</v>
       </c>
       <c r="G10" t="n">
-        <v>141.8759274335836</v>
+        <v>169.3958467337671</v>
       </c>
       <c r="H10" t="n">
-        <v>141.8759274335836</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="I10" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="J10" t="n">
-        <v>14.20809543930821</v>
+        <v>14.20809543930846</v>
       </c>
       <c r="K10" t="n">
-        <v>103.3052962210027</v>
+        <v>103.3052962210038</v>
       </c>
       <c r="L10" t="n">
-        <v>272.845472731933</v>
+        <v>272.8454727319352</v>
       </c>
       <c r="M10" t="n">
-        <v>285.2663763700419</v>
+        <v>417.8590574365628</v>
       </c>
       <c r="N10" t="n">
-        <v>437.8421456541805</v>
+        <v>437.8421456541913</v>
       </c>
       <c r="O10" t="n">
-        <v>597.3979227643166</v>
+        <v>597.3979227643283</v>
       </c>
       <c r="P10" t="n">
-        <v>710.4047719654104</v>
+        <v>710.404771965423</v>
       </c>
       <c r="Q10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="R10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="S10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="T10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="U10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="V10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="W10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="X10" t="n">
-        <v>705.1042971397943</v>
+        <v>705.1042971398075</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.4138536834087</v>
+        <v>705.1042971398075</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308156</v>
+        <v>1771.429619686767</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367744</v>
+        <v>1402.467102746355</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760994</v>
+        <v>1402.467102746355</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.38442316275</v>
+        <v>1016.678850148111</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731422</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181387</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5054,37 +5054,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372278</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228005</v>
@@ -5130,28 +5130,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415546</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1615.697475415546</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.280305378586</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509058</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.064145568647</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961896</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636519</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>342.0242895740443</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>84.98040897511622</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746738</v>
@@ -5291,10 +5291,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
         <v>4142.907144767228</v>
@@ -5306,22 +5306,22 @@
         <v>4156.161510599079</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>4156.161510599079</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3902.692231390207</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3828.518643329731</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3475.749988059617</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>3102.284229798537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.62650257318</v>
+        <v>2712.144897822725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N15" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>815.5522216374006</v>
+        <v>858.3279628031365</v>
       </c>
       <c r="C16" t="n">
-        <v>646.6160387094938</v>
+        <v>689.3917798752296</v>
       </c>
       <c r="D16" t="n">
-        <v>496.499399297158</v>
+        <v>539.2751404628939</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079444</v>
+        <v>391.3620468805008</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>391.3620468805008</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258816</v>
+        <v>224.002348998438</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511622</v>
@@ -5461,25 +5461,25 @@
         <v>2279.168624967671</v>
       </c>
       <c r="S16" t="n">
-        <v>2279.168624967671</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>2279.168624967671</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1990.084474752035</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="V16" t="n">
-        <v>1735.399986546149</v>
+        <v>1329.393597670337</v>
       </c>
       <c r="W16" t="n">
-        <v>1445.982816509188</v>
+        <v>1039.976427633376</v>
       </c>
       <c r="X16" t="n">
-        <v>1217.993265611171</v>
+        <v>1039.976427633376</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.2006864676404</v>
+        <v>1039.976427633376</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5540,7 +5540,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,25 +5595,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.129953114605</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F19" t="n">
         <v>386.7245456315381</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
@@ -5674,10 +5674,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,19 +5686,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127668</v>
@@ -5735,10 +5735,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,25 +5750,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5777,10 +5777,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400163</v>
@@ -5829,25 +5829,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1087.697503179733</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N21" t="n">
-        <v>1665.552851106135</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5896,19 +5896,19 @@
         <v>501.6849958039797</v>
       </c>
       <c r="F22" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897925</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
         <v>459.5287020443611</v>
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,7 +5975,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5987,19 +5987,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6020,10 +6020,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6066,19 +6066,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>147.5315942576216</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>450.5726436074859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>904.3712732018133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O24" t="n">
         <v>1959.694692760353</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609063</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039819</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315403</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749462</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989795</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6212,31 +6212,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076851</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6245,22 +6245,22 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
@@ -6297,25 +6297,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.552851106135</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O27" t="n">
         <v>1959.694692760353</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609036</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
         <v>857.3827676902786</v>
@@ -6403,31 +6403,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6449,58 +6449,58 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
         <v>2834.342818501802</v>
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502136</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477755</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609086</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039843</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127671</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645594</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073046</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254985</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6701,19 +6701,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L33" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N33" t="n">
-        <v>2049.239235375538</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F34" t="n">
         <v>386.7245456315385</v>
@@ -6871,37 +6871,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6920,34 +6920,34 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162833</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511572</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233287</v>
@@ -7008,7 +7008,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
         <v>84.98040897511621</v>
@@ -7017,25 +7017,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7114,13 +7114,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112804</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497861</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216579</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943803</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796646</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162809</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511333</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437411</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.3428185018</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851457</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511618</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694434</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857007</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812103</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
@@ -7348,7 +7348,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,22 +7360,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,28 +7409,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755811</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823383</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
         <v>2168.542634771632</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609058</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039813</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315395</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,25 +7567,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7597,22 +7597,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,10 +7646,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7661,7 +7661,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7731,16 +7731,16 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538066</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315376</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,13 +7804,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,10 +7825,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
         <v>2333.272818966195</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K2" t="n">
         <v>86.72591490550931</v>
@@ -7985,7 +7985,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N2" t="n">
         <v>42.33948647951536</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K3" t="n">
         <v>47.25897875440141</v>
@@ -8149,10 +8149,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O4" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,25 +8216,25 @@
         <v>98.30420645794972</v>
       </c>
       <c r="K5" t="n">
-        <v>40.63765753208767</v>
+        <v>40.6376575320877</v>
       </c>
       <c r="L5" t="n">
-        <v>13.14010066882989</v>
+        <v>50.13371393458539</v>
       </c>
       <c r="M5" t="n">
-        <v>10.53385028857655</v>
+        <v>19.62517633455613</v>
       </c>
       <c r="N5" t="n">
-        <v>14.68372436299586</v>
+        <v>5.592398317016421</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>65.35955720536796</v>
+        <v>28.36594393961252</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.96098256656424</v>
+        <v>69.96098256656427</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.5240955048436</v>
+        <v>55.52409550484361</v>
       </c>
       <c r="K6" t="n">
-        <v>15.95525556667873</v>
+        <v>15.95525556667874</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.63021144112578</v>
+        <v>43.63021144112579</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>92.48560745376844</v>
+        <v>92.48560745376842</v>
       </c>
       <c r="L7" t="n">
         <v>77.79638413461721</v>
       </c>
       <c r="M7" t="n">
-        <v>39.72960594677293</v>
+        <v>75.22852776744742</v>
       </c>
       <c r="N7" t="n">
-        <v>30.84802986290133</v>
+        <v>67.84164312865681</v>
       </c>
       <c r="O7" t="n">
-        <v>84.5103419313389</v>
+        <v>49.01142011066445</v>
       </c>
       <c r="P7" t="n">
-        <v>98.1858664523461</v>
+        <v>61.19225318659065</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>18.71470605410548</v>
+        <v>18.71470605409962</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>17.94216116945705</v>
+        <v>17.94216116945624</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>133.9320010772906</v>
       </c>
       <c r="N10" t="n">
-        <v>133.9320010772841</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.506350599811412e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.804778548830654e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>226.6142117698036</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.297882854403347</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>171.7404694037174</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.4919521192247</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -23309,13 +23309,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>162.5760987035356</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>173.221676883564</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>155.6909645840249</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>254.3204062902641</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.5874645742477</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.102987073425084</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-4.620526196653552e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1343342.035504646</v>
+        <v>1343342.035504645</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1343342.035504645</v>
+        <v>1343342.035504646</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1343342.035504646</v>
+        <v>1343342.035504645</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96636.06652409513</v>
+        <v>96636.06652409519</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,37 +26320,37 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>85249.27474273015</v>
+        <v>85249.27474273017</v>
       </c>
       <c r="F2" t="n">
-        <v>95842.89774391383</v>
+        <v>95842.89774391378</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="H2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="I2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="L2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330355</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26366,46 +26366,46 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>94021.10390369294</v>
+        <v>94021.10390369289</v>
       </c>
       <c r="D3" t="n">
-        <v>202057.8637125756</v>
+        <v>202057.8637125801</v>
       </c>
       <c r="E3" t="n">
-        <v>640230.2398270912</v>
+        <v>640230.2398270871</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963081</v>
+        <v>215052.109696308</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9520.972258980983</v>
+        <v>9520.972258980939</v>
       </c>
       <c r="L3" t="n">
-        <v>60874.67484210226</v>
+        <v>60874.67484210303</v>
       </c>
       <c r="M3" t="n">
-        <v>162929.6405938554</v>
+        <v>162929.6405938551</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578626</v>
+        <v>56542.29359578637</v>
       </c>
       <c r="O3" t="n">
-        <v>1.215205429616617e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>337723.4195335117</v>
       </c>
       <c r="D4" t="n">
-        <v>277387.5389398814</v>
+        <v>277387.5389398801</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26436,28 +26436,28 @@
         <v>40959.76311601004</v>
       </c>
       <c r="I4" t="n">
-        <v>40959.7631160101</v>
+        <v>40959.76311601005</v>
       </c>
       <c r="J4" t="n">
+        <v>40959.76311601006</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.7631160102</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40959.76311601003</v>
+      </c>
+      <c r="M4" t="n">
         <v>40959.76311601004</v>
       </c>
-      <c r="K4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.7631160101</v>
-      </c>
       <c r="N4" t="n">
-        <v>40959.7631160102</v>
+        <v>40959.76311601006</v>
       </c>
       <c r="O4" t="n">
-        <v>40959.76311601015</v>
+        <v>40959.76311601007</v>
       </c>
       <c r="P4" t="n">
-        <v>40959.76311601004</v>
+        <v>40959.76311601008</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
-        <v>56107.45912460596</v>
+        <v>56107.45912460624</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
@@ -26503,13 +26503,13 @@
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-529690.1756179199</v>
+        <v>-529810.0587120986</v>
       </c>
       <c r="C6" t="n">
-        <v>-372641.2372744485</v>
+        <v>-372641.2372744484</v>
       </c>
       <c r="D6" t="n">
-        <v>-432922.6405440276</v>
+        <v>-432922.640544031</v>
       </c>
       <c r="E6" t="n">
-        <v>-639057.7087478458</v>
+        <v>-639405.3276776478</v>
       </c>
       <c r="F6" t="n">
-        <v>-221548.0859867913</v>
+        <v>-221683.8324565737</v>
       </c>
       <c r="G6" t="n">
-        <v>-58724.137866901</v>
+        <v>-58724.13786690108</v>
       </c>
       <c r="H6" t="n">
         <v>-33435.97598512979</v>
       </c>
       <c r="I6" t="n">
-        <v>-33435.97598512987</v>
+        <v>-33435.97598512989</v>
       </c>
       <c r="J6" t="n">
-        <v>-33435.97598512969</v>
+        <v>-33435.97598512989</v>
       </c>
       <c r="K6" t="n">
-        <v>-42956.9482441108</v>
+        <v>-42956.94824411086</v>
       </c>
       <c r="L6" t="n">
-        <v>-94310.65082723206</v>
+        <v>-94310.65082723292</v>
       </c>
       <c r="M6" t="n">
-        <v>-196365.6165789853</v>
+        <v>-196365.6165789849</v>
       </c>
       <c r="N6" t="n">
-        <v>-89978.26958091631</v>
+        <v>-89978.2695809163</v>
       </c>
       <c r="O6" t="n">
-        <v>-33435.97598513006</v>
+        <v>-33435.97598512993</v>
       </c>
       <c r="P6" t="n">
-        <v>-33435.97598512981</v>
+        <v>-33435.97598513007</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="I2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="O2" t="n">
-        <v>31.610202352214</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
-        <v>535.8581004922808</v>
+        <v>535.8581004922847</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
-        <v>177.6011929913526</v>
+        <v>177.6011929913558</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26814,7 +26814,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="M2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>90.12669847892562</v>
+        <v>90.12669847892556</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9350094958903</v>
+        <v>184.9350094958943</v>
       </c>
       <c r="E3" t="n">
-        <v>553.9186001010173</v>
+        <v>553.9186001010133</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268247</v>
@@ -27012,43 +27012,43 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
-        <v>140.6075797255972</v>
+        <v>140.6075797256003</v>
       </c>
       <c r="E4" t="n">
-        <v>653.8002624109398</v>
+        <v>653.8002624109369</v>
       </c>
       <c r="F4" t="n">
+        <v>230.8536567866602</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.99361326575479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>140.6075797256007</v>
+      </c>
+      <c r="M4" t="n">
+        <v>653.8002624109366</v>
+      </c>
+      <c r="N4" t="n">
         <v>230.8536567866604</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36.99361326575558</v>
-      </c>
-      <c r="L4" t="n">
-        <v>140.6075797255972</v>
-      </c>
-      <c r="M4" t="n">
-        <v>653.8002624109376</v>
-      </c>
-      <c r="N4" t="n">
-        <v>230.8536567866599</v>
-      </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6075797255972</v>
+        <v>140.6075797256003</v>
       </c>
       <c r="M4" t="n">
-        <v>653.8002624109398</v>
+        <v>653.8002624109369</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866602</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>156.119629893677</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I2" t="n">
         <v>170.0563803341062</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S2" t="n">
         <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
-        <v>217.2084744152749</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27558,7 +27558,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R4" t="n">
         <v>156.1475068297698</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>345.7402283977251</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>328.2792785052521</v>
       </c>
       <c r="D5" t="n">
-        <v>335.9910584768828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>369.882432475956</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>388.1840625979112</v>
       </c>
       <c r="H5" t="n">
         <v>325.0269986759007</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0944874980641</v>
+        <v>156.0881007638196</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>24.25772531940621</v>
+        <v>24.25772531940623</v>
       </c>
       <c r="S5" t="n">
         <v>176.8726929587871</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>135.7148857225603</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>110.4514522988833</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>125.0611058909235</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.5887014580486</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9455136103262</v>
+        <v>67.95190034457069</v>
       </c>
       <c r="I6" t="n">
-        <v>63.40846054649371</v>
+        <v>26.41484728073824</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16.29943526287911</v>
+        <v>53.2930485286346</v>
       </c>
       <c r="S6" t="n">
         <v>157.6628004399726</v>
       </c>
       <c r="T6" t="n">
-        <v>160.1286784420314</v>
+        <v>197.1222917077869</v>
       </c>
       <c r="U6" t="n">
         <v>225.8917231530036</v>
       </c>
       <c r="V6" t="n">
-        <v>200.2166125849479</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>111.6218597524569</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.6008973763827</v>
       </c>
       <c r="I7" t="n">
-        <v>99.42647502189526</v>
+        <v>136.4200882876507</v>
       </c>
       <c r="J7" t="n">
-        <v>11.62574916765617</v>
+        <v>48.61936243341167</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>148.8398568186753</v>
       </c>
       <c r="S7" t="n">
-        <v>212.9884084395939</v>
+        <v>176.5834771206004</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2417557763421</v>
+        <v>188.2481425105866</v>
       </c>
       <c r="U7" t="n">
         <v>286.284512331147</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1797220331013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>317.4130663502734</v>
+        <v>317.4130663502733</v>
       </c>
       <c r="I8" t="n">
-        <v>127.4259622569239</v>
+        <v>127.4259622569233</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.9311591743143</v>
+        <v>159.9311591743139</v>
       </c>
       <c r="T8" t="n">
-        <v>36.06463110582413</v>
+        <v>36.06463110582092</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1733166343113</v>
+        <v>73.57212364295557</v>
       </c>
       <c r="V8" t="n">
-        <v>150.1510654787823</v>
+        <v>205.8958449394725</v>
       </c>
       <c r="W8" t="n">
-        <v>171.6397757260604</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>247.8746871478104</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>208.6367456646978</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>38.6975542745094</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27947,10 +27947,10 @@
         <v>136.1909167206423</v>
       </c>
       <c r="H9" t="n">
-        <v>101.1037504885342</v>
+        <v>101.1037504885341</v>
       </c>
       <c r="I9" t="n">
-        <v>49.71280182439239</v>
+        <v>49.71280182439209</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>150.2741234096415</v>
+        <v>150.2741234096414</v>
       </c>
       <c r="T9" t="n">
         <v>195.5189400688555</v>
       </c>
       <c r="U9" t="n">
-        <v>98.0299237291355</v>
+        <v>48.2643601131343</v>
       </c>
       <c r="V9" t="n">
-        <v>55.19939415807266</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>74.093790169567</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>28.17179221212487</v>
+        <v>28.17179221212172</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>28.0815027859486</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>2.230787190581538</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>87.72031077708868</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0246778657678</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6358737815142</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126.3911536743324</v>
       </c>
       <c r="J10" t="n">
-        <v>25.04166458341922</v>
+        <v>25.04166458341871</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.8449624421724</v>
+        <v>133.8449624421721</v>
       </c>
       <c r="S10" t="n">
-        <v>207.1765983870755</v>
+        <v>207.1765983870754</v>
       </c>
       <c r="T10" t="n">
         <v>223.8168466867836</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.681114330273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221412</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221383</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
-        <v>12.3803783660579</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K2" t="n">
         <v>133.3639361394712</v>
@@ -31072,7 +31072,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R2" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S2" t="n">
         <v>23.89104641001701</v>
@@ -31081,7 +31081,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,7 +31121,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I3" t="n">
         <v>19.31369510624622</v>
@@ -31154,7 +31154,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T3" t="n">
         <v>2.261055516259907</v>
@@ -31206,7 +31206,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K4" t="n">
         <v>54.63898190775737</v>
@@ -31221,13 +31221,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R4" t="n">
         <v>21.14588454739968</v>
@@ -31285,13 +31285,13 @@
         <v>54.38778880658631</v>
       </c>
       <c r="J5" t="n">
-        <v>119.7353113344921</v>
+        <v>119.735311334492</v>
       </c>
       <c r="K5" t="n">
-        <v>179.4521935128929</v>
+        <v>179.4521935128928</v>
       </c>
       <c r="L5" t="n">
-        <v>222.6263143011574</v>
+        <v>222.6263143011573</v>
       </c>
       <c r="M5" t="n">
         <v>247.7146701584721</v>
@@ -31309,13 +31309,13 @@
         <v>152.3447073078852</v>
       </c>
       <c r="R5" t="n">
-        <v>88.61777935598799</v>
+        <v>88.61777935598798</v>
       </c>
       <c r="S5" t="n">
         <v>32.14737662745829</v>
       </c>
       <c r="T5" t="n">
-        <v>6.175541028489241</v>
+        <v>6.17554102848924</v>
       </c>
       <c r="U5" t="n">
         <v>0.112859687556628</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7548157051620474</v>
+        <v>0.7548157051620473</v>
       </c>
       <c r="H6" t="n">
-        <v>7.289930626170301</v>
+        <v>7.2899306261703</v>
       </c>
       <c r="I6" t="n">
         <v>25.98817230492137</v>
       </c>
       <c r="J6" t="n">
-        <v>71.31353116182309</v>
+        <v>71.31353116182308</v>
       </c>
       <c r="K6" t="n">
-        <v>121.8861834076803</v>
+        <v>121.8861834076802</v>
       </c>
       <c r="L6" t="n">
         <v>163.8910152809086</v>
@@ -31382,13 +31382,13 @@
         <v>179.5898577101999</v>
       </c>
       <c r="P6" t="n">
-        <v>144.1366937339703</v>
+        <v>144.1366937339702</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.35156264489574</v>
+        <v>96.35156264489572</v>
       </c>
       <c r="R6" t="n">
-        <v>46.86478562400854</v>
+        <v>46.86478562400853</v>
       </c>
       <c r="S6" t="n">
         <v>14.02037066386521</v>
@@ -31397,7 +31397,7 @@
         <v>3.042436987034742</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04965892797118735</v>
+        <v>0.04965892797118734</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,34 +31434,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6328121313049663</v>
+        <v>0.6328121313049662</v>
       </c>
       <c r="H7" t="n">
-        <v>5.626275131056886</v>
+        <v>5.626275131056885</v>
       </c>
       <c r="I7" t="n">
-        <v>19.03038663960754</v>
+        <v>19.03038663960753</v>
       </c>
       <c r="J7" t="n">
-        <v>44.73981768326112</v>
+        <v>44.73981768326111</v>
       </c>
       <c r="K7" t="n">
         <v>73.52126398252243</v>
       </c>
       <c r="L7" t="n">
-        <v>94.08190541237656</v>
+        <v>94.08190541237654</v>
       </c>
       <c r="M7" t="n">
-        <v>99.19617800083212</v>
+        <v>99.19617800083209</v>
       </c>
       <c r="N7" t="n">
-        <v>96.83751460233186</v>
+        <v>96.83751460233185</v>
       </c>
       <c r="O7" t="n">
-        <v>89.44511834117836</v>
+        <v>89.44511834117834</v>
       </c>
       <c r="P7" t="n">
-        <v>76.53575086255698</v>
+        <v>76.53575086255697</v>
       </c>
       <c r="Q7" t="n">
         <v>52.98938674045495</v>
@@ -31473,10 +31473,10 @@
         <v>11.02818959737836</v>
       </c>
       <c r="T7" t="n">
-        <v>2.703833651939401</v>
+        <v>2.7038336519394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03451702534390729</v>
+        <v>0.03451702534390728</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.154203419064443</v>
+        <v>2.154203419064459</v>
       </c>
       <c r="H8" t="n">
-        <v>22.06173576549374</v>
+        <v>22.0617357654939</v>
       </c>
       <c r="I8" t="n">
-        <v>83.04992731348204</v>
+        <v>83.04992731348266</v>
       </c>
       <c r="J8" t="n">
-        <v>182.835322438821</v>
+        <v>182.8353224388223</v>
       </c>
       <c r="K8" t="n">
-        <v>274.022753167819</v>
+        <v>274.022753167821</v>
       </c>
       <c r="L8" t="n">
-        <v>339.9494560540125</v>
+        <v>339.949456054015</v>
       </c>
       <c r="M8" t="n">
-        <v>378.2592711077997</v>
+        <v>378.2592711078026</v>
       </c>
       <c r="N8" t="n">
-        <v>384.3799015722166</v>
+        <v>384.3799015722195</v>
       </c>
       <c r="O8" t="n">
-        <v>362.9590413238946</v>
+        <v>362.9590413238972</v>
       </c>
       <c r="P8" t="n">
-        <v>309.7771444157411</v>
+        <v>309.7771444157434</v>
       </c>
       <c r="Q8" t="n">
-        <v>232.6297344704956</v>
+        <v>232.6297344704973</v>
       </c>
       <c r="R8" t="n">
-        <v>135.318980522807</v>
+        <v>135.318980522808</v>
       </c>
       <c r="S8" t="n">
-        <v>49.08891041193106</v>
+        <v>49.08891041193142</v>
       </c>
       <c r="T8" t="n">
-        <v>9.430025466954607</v>
+        <v>9.430025466954676</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1723362735251555</v>
+        <v>0.1723362735251567</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152600442568302</v>
+        <v>1.152600442568311</v>
       </c>
       <c r="H9" t="n">
-        <v>11.13169374796229</v>
+        <v>11.13169374796237</v>
       </c>
       <c r="I9" t="n">
-        <v>39.68383102702268</v>
+        <v>39.68383102702298</v>
       </c>
       <c r="J9" t="n">
-        <v>108.8954654972096</v>
+        <v>108.8954654972105</v>
       </c>
       <c r="K9" t="n">
-        <v>186.1196951492859</v>
+        <v>186.1196951492873</v>
       </c>
       <c r="L9" t="n">
-        <v>250.2608987251921</v>
+        <v>250.260898725194</v>
       </c>
       <c r="M9" t="n">
-        <v>292.042664768293</v>
+        <v>292.0426647682951</v>
       </c>
       <c r="N9" t="n">
-        <v>299.7721651046392</v>
+        <v>299.7721651046414</v>
       </c>
       <c r="O9" t="n">
-        <v>274.2329658245732</v>
+        <v>274.2329658245752</v>
       </c>
       <c r="P9" t="n">
-        <v>220.0961318795559</v>
+        <v>220.0961318795575</v>
       </c>
       <c r="Q9" t="n">
-        <v>147.128435440824</v>
+        <v>147.1284354408251</v>
       </c>
       <c r="R9" t="n">
-        <v>71.56233274121443</v>
+        <v>71.56233274121496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.4090476941963</v>
+        <v>21.40904769419646</v>
       </c>
       <c r="T9" t="n">
-        <v>4.645788625966093</v>
+        <v>4.645788625966127</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07582897648475674</v>
+        <v>0.07582897648475731</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.966301492690998</v>
+        <v>0.9663014926910052</v>
       </c>
       <c r="H10" t="n">
-        <v>8.591298725925425</v>
+        <v>8.591298725925489</v>
       </c>
       <c r="I10" t="n">
-        <v>29.05932125292566</v>
+        <v>29.05932125292587</v>
       </c>
       <c r="J10" t="n">
-        <v>68.31751553325356</v>
+        <v>68.31751553325407</v>
       </c>
       <c r="K10" t="n">
-        <v>112.266664332645</v>
+        <v>112.2666643326458</v>
       </c>
       <c r="L10" t="n">
-        <v>143.662678286078</v>
+        <v>143.6626782860791</v>
       </c>
       <c r="M10" t="n">
-        <v>151.4721512588262</v>
+        <v>151.4721512588273</v>
       </c>
       <c r="N10" t="n">
-        <v>147.8704820587962</v>
+        <v>147.8704820587973</v>
       </c>
       <c r="O10" t="n">
-        <v>136.5823237123604</v>
+        <v>136.5823237123614</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8697732614639</v>
+        <v>116.8697732614648</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.91457317433439</v>
+        <v>80.91457317433499</v>
       </c>
       <c r="R10" t="n">
-        <v>43.44842893499705</v>
+        <v>43.44842893499737</v>
       </c>
       <c r="S10" t="n">
-        <v>16.83999964989675</v>
+        <v>16.83999964989687</v>
       </c>
       <c r="T10" t="n">
-        <v>4.128742741497899</v>
+        <v>4.12874274149793</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05270735414678177</v>
+        <v>0.05270735414678216</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>443.943509024727</v>
@@ -32087,16 +32087,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>706.0448840335913</v>
       </c>
       <c r="O15" t="n">
-        <v>211.6584993001651</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>281.787922843665</v>
+        <v>584.3932527497834</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32549,28 +32549,28 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>650.6667329954519</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>190.0206421035408</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32798,10 +32798,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>573.1387203886727</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
@@ -33023,22 +33023,22 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>439.7092158123408</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33272,13 +33272,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33506,7 +33506,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>645.1509001052084</v>
+        <v>151.0727449683542</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
@@ -33515,13 +33515,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H35" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I35" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N35" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33728,37 +33728,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H36" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>224.6083558013958</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160627</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H37" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838146</v>
@@ -33819,31 +33819,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P37" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R37" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I38" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N38" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33965,34 +33965,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>482.1899443424803</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160627</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H40" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838146</v>
@@ -34056,31 +34056,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P40" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I41" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N41" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34202,31 +34202,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>711.584314753687</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H43" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838146</v>
@@ -34293,31 +34293,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P43" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565693</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34439,31 +34439,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160627</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750705</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34530,31 +34530,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M5" t="n">
-        <v>27.90228721977595</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N5" t="n">
-        <v>36.99361326575549</v>
+        <v>27.90228721977597</v>
       </c>
       <c r="O5" t="n">
-        <v>7.596634600898511</v>
+        <v>7.596634600898483</v>
       </c>
       <c r="P5" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.33663550103441</v>
+        <v>25.33663550103438</v>
       </c>
       <c r="M6" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O6" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P6" t="n">
-        <v>10.16228631964003</v>
+        <v>10.16228631964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L7" t="n">
-        <v>36.99361326575549</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>35.49892182067446</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O7" t="n">
-        <v>35.49892182067446</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>36.99361326575549</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.789417912134695</v>
+        <v>1.789417912136059</v>
       </c>
       <c r="K8" t="n">
-        <v>53.93290212283841</v>
+        <v>53.9329021228404</v>
       </c>
       <c r="L8" t="n">
-        <v>104.1830410840253</v>
+        <v>104.1830410840278</v>
       </c>
       <c r="M8" t="n">
-        <v>166.6277439346325</v>
+        <v>166.6277439346295</v>
       </c>
       <c r="N8" t="n">
-        <v>154.9668379756257</v>
+        <v>154.9668379756286</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8608299022078</v>
+        <v>132.8608299022105</v>
       </c>
       <c r="P8" t="n">
-        <v>78.54414866047154</v>
+        <v>78.54414866047381</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.32404459604612</v>
+        <v>10.32404459604783</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.27825617492687</v>
+        <v>48.27825617492826</v>
       </c>
       <c r="L9" t="n">
-        <v>111.7065189453179</v>
+        <v>111.7065189453198</v>
       </c>
       <c r="M9" t="n">
-        <v>149.9086308462747</v>
+        <v>149.9086308462768</v>
       </c>
       <c r="N9" t="n">
-        <v>168.4304530213059</v>
+        <v>168.4304530213081</v>
       </c>
       <c r="O9" t="n">
-        <v>131.6367213801287</v>
+        <v>131.6367213801307</v>
       </c>
       <c r="P9" t="n">
-        <v>86.12172446522561</v>
+        <v>86.12172446522726</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.146661354802461</v>
+        <v>7.146661354803541</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>89.99717250676215</v>
+        <v>89.99717250676299</v>
       </c>
       <c r="L10" t="n">
-        <v>171.2527035463942</v>
+        <v>171.2527035463953</v>
       </c>
       <c r="M10" t="n">
-        <v>12.5463673112211</v>
+        <v>146.4783683885128</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1169386708471</v>
+        <v>20.18493759356409</v>
       </c>
       <c r="O10" t="n">
-        <v>161.1674516264001</v>
+        <v>161.1674516264011</v>
       </c>
       <c r="P10" t="n">
-        <v>114.1483325263574</v>
+        <v>114.1483325263583</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>306.102070050368</v>
@@ -35735,16 +35735,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>574.703171950258</v>
       </c>
       <c r="O15" t="n">
-        <v>69.06225485572071</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>139.1916783992206</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36127,7 +36127,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381577</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>508.0704885510074</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>63.1830154368741</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36446,10 +36446,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116857</v>
       </c>
       <c r="K26" t="n">
         <v>433.5251384721831</v>
@@ -36604,7 +36604,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
         <v>635.6527791348809</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>297.1129713678964</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
@@ -36756,7 +36756,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36838,7 +36838,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36920,13 +36920,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37154,7 +37154,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>503.01686618319</v>
+        <v>8.938711046335936</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
@@ -37163,13 +37163,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37306,25 +37306,25 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K35" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N35" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440238</v>
@@ -37385,28 +37385,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>86.05397602152159</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327294</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.870879740444849e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>340.0559104204619</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327294</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37716,7 +37716,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37780,28 +37780,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>580.2426026703537</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38017,28 +38017,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348825</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327294</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O45" t="n">
-        <v>460.073927130626</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
@@ -38190,7 +38190,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
